--- a/Feature-Analysis/Resize Feature/s_30_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_30_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.41918981483</v>
+        <v>738157.41918981483</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.41969907412</v>
+        <v>738157.41969907412</v>
       </c>
       <c r="C3" s="0">
         <v>44.00000274181366</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.42002314818</v>
+        <v>738157.42002314818</v>
       </c>
       <c r="C4" s="0">
         <v>72.00000174343586</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.42037037038</v>
+        <v>738157.42037037038</v>
       </c>
       <c r="C5" s="0">
         <v>101.99999995529652</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.42071759258</v>
+        <v>738157.42071759258</v>
       </c>
       <c r="C6" s="0">
         <v>131.99999816715717</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.42107638891</v>
+        <v>738157.42107638891</v>
       </c>
       <c r="C7" s="0">
         <v>163.00000101327896</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.4217592593</v>
+        <v>738157.4217592593</v>
       </c>
       <c r="C8" s="0">
         <v>222.00000286102295</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.42210648151</v>
+        <v>738157.42210648151</v>
       </c>
       <c r="C9" s="0">
         <v>252.00000107288361</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.42246527784</v>
+        <v>738157.42246527784</v>
       </c>
       <c r="C10" s="0">
         <v>283.00000391900539</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.42280092591</v>
+        <v>738157.42280092591</v>
       </c>
       <c r="C11" s="0">
         <v>311.99999749660492</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.42317129625</v>
+        <v>738157.42317129625</v>
       </c>
       <c r="C12" s="0">
         <v>343.99999491870403</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.42349537043</v>
+        <v>738157.42349537043</v>
       </c>
       <c r="C13" s="0">
         <v>372.00000397861004</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.4238310185</v>
+        <v>738157.4238310185</v>
       </c>
       <c r="C14" s="0">
         <v>400.99999755620956</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.42420138884</v>
+        <v>738157.42420138884</v>
       </c>
       <c r="C15" s="0">
         <v>432.99999497830868</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.42453703703</v>
+        <v>738157.42453703703</v>
       </c>
       <c r="C16" s="0">
         <v>461.99999861419201</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.42487268522</v>
+        <v>738157.42487268522</v>
       </c>
       <c r="C17" s="0">
         <v>491.00000225007534</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.42523148144</v>
+        <v>738157.42523148144</v>
       </c>
       <c r="C18" s="0">
         <v>521.99999503791332</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.42557870375</v>
+        <v>738157.42557870375</v>
       </c>
       <c r="C19" s="0">
         <v>552.00000330805779</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.4259490741</v>
+        <v>738157.4259490741</v>
       </c>
       <c r="C20" s="0">
         <v>584.0000007301569</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.42628472217</v>
+        <v>738157.42628472217</v>
       </c>
       <c r="C21" s="0">
         <v>612.99999430775642</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.42679398146</v>
+        <v>738157.42679398146</v>
       </c>
       <c r="C22" s="0">
         <v>656.99999704957008</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.42711805552</v>
+        <v>738157.42711805552</v>
       </c>
       <c r="C23" s="0">
         <v>684.99999605119228</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.42782407405</v>
+        <v>738157.42782407405</v>
       </c>
       <c r="C24" s="0">
         <v>745.99999710917473</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.42782407405</v>
+        <v>738157.42782407405</v>
       </c>
       <c r="C25" s="0">
         <v>745.99999710917473</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.42817129625</v>
+        <v>738157.42817129625</v>
       </c>
       <c r="C26" s="0">
         <v>775.99999532103539</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.42856481485</v>
+        <v>738157.42856481485</v>
       </c>
       <c r="C27" s="0">
         <v>810.00000201165676</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.42923611111</v>
+        <v>738157.42923611111</v>
       </c>
       <c r="C28" s="0">
         <v>867.99999922513962</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.42954861117</v>
+        <v>738157.42954861117</v>
       </c>
       <c r="C29" s="0">
         <v>895.00000365078449</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.42990740738</v>
+        <v>738157.42990740738</v>
       </c>
       <c r="C30" s="0">
         <v>925.99999643862247</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.43024305557</v>
+        <v>738157.43024305557</v>
       </c>
       <c r="C31" s="0">
         <v>955.00000007450581</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.43059027777</v>
+        <v>738157.43059027777</v>
       </c>
       <c r="C32" s="0">
         <v>984.99999828636646</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.4309490741</v>
+        <v>738157.4309490741</v>
       </c>
       <c r="C33" s="0">
         <v>1016.0000011324883</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.43128472217</v>
+        <v>738157.43128472217</v>
       </c>
       <c r="C34" s="0">
         <v>1044.9999947100878</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.4316435185</v>
+        <v>738157.4316435185</v>
       </c>
       <c r="C35" s="0">
         <v>1075.9999975562096</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.4319907407</v>
+        <v>738157.4319907407</v>
       </c>
       <c r="C36" s="0">
         <v>1105.9999957680702</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.43234953703</v>
+        <v>738157.43234953703</v>
       </c>
       <c r="C37" s="0">
         <v>1136.999998614192</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.43268518522</v>
+        <v>738157.43268518522</v>
       </c>
       <c r="C38" s="0">
         <v>1166.0000022500753</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.43303240743</v>
+        <v>738157.43303240743</v>
       </c>
       <c r="C39" s="0">
         <v>1196.000000461936</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.43337962963</v>
+        <v>738157.43337962963</v>
       </c>
       <c r="C40" s="0">
         <v>1225.9999986737967</v>
